--- a/relatedFiles/other files/products.xlsx
+++ b/relatedFiles/other files/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Dev\Laravel\_Developing_Phase_Project\Murarkey Single Vendor\Murarkey_single_vendor_ecommerce_with_vuexy_template\relatedFiles\other files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FADA0B5-1722-48EC-A963-DC9E05F7CB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5756431E-F356-4FBB-85DA-4AA963D76BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="127">
   <si>
     <t>Name</t>
   </si>
@@ -432,7 +432,103 @@
     <t>Total Product Units</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/x2sKXhjzBJMyCuAXCnqRGGXCoiv4RFJuTqeewrL3.jpg</t>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-tan-removal-orange-peel-off-mask-100g.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-anti-hair-fall-styling-gel-strong-hold-for-men-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-purifying-neem-pack-100g.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-refreshing-cleansing-milk-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-neem-turmeric-soap-125gm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-almond-rose-soap-75gm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-clear-complexion-whitening-day-cream-50g.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-purifying-neem-face-wash-300ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-revitalizing-night-cream-50g.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-purifying-neem-peel-off-mask-100g.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-anti-wrinkle-cream-50g.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-sparkling-white-toothpaste-150gm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-purifying-neem-face-wash-50ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-protective-sunscreen-lotion-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-anti-dandruff-shampoo-700ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-herbal-dental-cream-200gm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-daily-nourish-styling-gel-normal-hold-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-anti-dandruff-shampoo-400ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-complete-care-herbal-toothpaste-150gm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-gentle-exfoliating-walnut-scrub-100gm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-clear-complexion-whitening-face-scrub-100gm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-lip-balm-10g.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-anti-dandruff-styling-gel-strong-hold-for-men-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-purifying-neem-scrub-100gm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-oil-free-radiance-gel-cream-50gm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-kajal-eye-definer-27gm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-nourishing-skin-cream-200ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-winter-defense-moisturizing-cream-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-oil-clear-lemon-face-wash-150ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-fresh-start-oil-clear-face-wash-blueberry-50ml.jpg; https://www.okdam.com/public/images/upload/product/extraimages/himalaya-fresh-start-oil-clear-face-wash-blueberry-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-fresh-start-oil-clear-face-wash-lemon-50ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-fresh-start-oil-clear-face-wash-strawberry-50ml.jpg</t>
+  </si>
+  <si>
+    <t>https://murarkey.com/wp-content/uploads/2020/04/Rim3-b.jpg</t>
   </si>
 </sst>
 </file>
@@ -781,13 +877,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L36"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="13.140625" style="1"/>
+    <col min="1" max="11" width="13.140625" style="1"/>
+    <col min="12" max="12" width="42" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="1"/>
     <col min="14" max="14" width="26.7109375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="13.140625" style="1"/>
   </cols>
@@ -871,7 +969,7 @@
         <v>46</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="M2" s="1">
         <v>30693</v>
@@ -959,7 +1057,7 @@
         <v>145</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" s="1">
         <v>30695</v>
@@ -1003,7 +1101,7 @@
         <v>205</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M5" s="1">
         <v>30696</v>
@@ -1047,7 +1145,7 @@
         <v>130</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M6" s="1">
         <v>30697</v>
@@ -1091,7 +1189,7 @@
         <v>85</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M7" s="1">
         <v>30698</v>
@@ -1135,7 +1233,7 @@
         <v>45</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M8" s="1">
         <v>30699</v>
@@ -1179,7 +1277,7 @@
         <v>375</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M9" s="1">
         <v>30700</v>
@@ -1223,7 +1321,7 @@
         <v>365</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M10" s="1">
         <v>30701</v>
@@ -1267,7 +1365,7 @@
         <v>375</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M11" s="1">
         <v>30702</v>
@@ -1311,7 +1409,7 @@
         <v>205</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="M12" s="1">
         <v>30703</v>
@@ -1355,7 +1453,7 @@
         <v>415</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="M13" s="1">
         <v>30704</v>
@@ -1399,7 +1497,7 @@
         <v>135</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="M14" s="1">
         <v>30705</v>
@@ -1443,7 +1541,7 @@
         <v>100</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="M15" s="1">
         <v>30706</v>
@@ -1487,7 +1585,7 @@
         <v>300</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="M16" s="1">
         <v>30707</v>
@@ -1531,7 +1629,7 @@
         <v>575</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="M17" s="1">
         <v>30708</v>
@@ -1575,7 +1673,7 @@
         <v>130</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="M18" s="1">
         <v>30709</v>
@@ -1619,7 +1717,7 @@
         <v>145</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="M19" s="1">
         <v>30710</v>
@@ -1663,7 +1761,7 @@
         <v>350</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="M20" s="1">
         <v>30711</v>
@@ -1707,7 +1805,7 @@
         <v>120</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="M21" s="1">
         <v>30712</v>
@@ -1751,7 +1849,7 @@
         <v>210</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="M22" s="1">
         <v>30713</v>
@@ -1795,7 +1893,7 @@
         <v>210</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="M23" s="1">
         <v>30714</v>
@@ -1839,7 +1937,7 @@
         <v>50</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="M24" s="1">
         <v>30715</v>
@@ -1883,7 +1981,7 @@
         <v>150</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="M25" s="1">
         <v>30716</v>
@@ -1927,7 +2025,7 @@
         <v>210</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="M26" s="1">
         <v>30717</v>
@@ -1971,7 +2069,7 @@
         <v>375</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="M27" s="1">
         <v>30718</v>
@@ -2015,7 +2113,7 @@
         <v>215</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="M28" s="1">
         <v>30719</v>
@@ -2059,7 +2157,7 @@
         <v>350</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="M29" s="1">
         <v>30720</v>
@@ -2103,7 +2201,7 @@
         <v>200</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="M30" s="1">
         <v>30721</v>
@@ -2147,7 +2245,7 @@
         <v>240</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="M31" s="1">
         <v>30722</v>
@@ -2191,7 +2289,7 @@
         <v>205</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="M32" s="1">
         <v>30723</v>
@@ -2235,7 +2333,7 @@
         <v>268</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="M33" s="1">
         <v>30724</v>
@@ -2279,7 +2377,7 @@
         <v>268</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="M34" s="1">
         <v>30725</v>
@@ -2323,7 +2421,7 @@
         <v>268</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="M35" s="1">
         <v>30726</v>
@@ -2367,7 +2465,7 @@
         <v>268</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="M36" s="1">
         <v>30727</v>

--- a/relatedFiles/other files/products.xlsx
+++ b/relatedFiles/other files/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Dev\Laravel\_Developing_Phase_Project\Murarkey Single Vendor\Murarkey_single_vendor_ecommerce_with_vuexy_template\relatedFiles\other files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5756431E-F356-4FBB-85DA-4AA963D76BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE8F947-B55D-4EA7-B404-2D4F0604677B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -405,6 +405,111 @@
 Makes your face soft, healthy and fresh</t>
   </si>
   <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-herbal-soap.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-tan-removal-orange-peel-off-mask-100g.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-anti-hair-fall-styling-gel-strong-hold-for-men-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-purifying-neem-pack-100g.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-refreshing-cleansing-milk-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-neem-turmeric-soap-125gm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-almond-rose-soap-75gm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-clear-complexion-whitening-day-cream-50g.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-purifying-neem-face-wash-300ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-revitalizing-night-cream-50g.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-purifying-neem-peel-off-mask-100g.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-anti-wrinkle-cream-50g.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-sparkling-white-toothpaste-150gm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-purifying-neem-face-wash-50ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-protective-sunscreen-lotion-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-anti-dandruff-shampoo-700ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-herbal-dental-cream-200gm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-daily-nourish-styling-gel-normal-hold-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-anti-dandruff-shampoo-400ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-complete-care-herbal-toothpaste-150gm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-gentle-exfoliating-walnut-scrub-100gm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-clear-complexion-whitening-face-scrub-100gm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-lip-balm-10g.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-anti-dandruff-styling-gel-strong-hold-for-men-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-purifying-neem-scrub-100gm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-oil-free-radiance-gel-cream-50gm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-kajal-eye-definer-27gm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-nourishing-skin-cream-200ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-winter-defense-moisturizing-cream-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-oil-clear-lemon-face-wash-150ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-tan-removal-orange-face-wash-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-fresh-start-oil-clear-face-wash-blueberry-50ml.jpg; https://www.okdam.com/public/images/upload/product/extraimages/himalaya-fresh-start-oil-clear-face-wash-blueberry-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-fresh-start-oil-clear-face-wash-lemon-50ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-fresh-start-oil-clear-face-wash-peach-50ml.jpg</t>
+  </si>
+  <si>
+    <t>https://www.okdam.com/public/images/upload/product/himalaya-fresh-start-oil-clear-face-wash-strawberry-50ml.jpg</t>
+  </si>
+  <si>
     <t>Body</t>
   </si>
   <si>
@@ -430,105 +535,6 @@
   </si>
   <si>
     <t>Total Product Units</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-tan-removal-orange-peel-off-mask-100g.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-anti-hair-fall-styling-gel-strong-hold-for-men-100ml.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-purifying-neem-pack-100g.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-refreshing-cleansing-milk-100ml.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-neem-turmeric-soap-125gm.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-almond-rose-soap-75gm.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-clear-complexion-whitening-day-cream-50g.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-purifying-neem-face-wash-300ml.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-revitalizing-night-cream-50g.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-purifying-neem-peel-off-mask-100g.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-anti-wrinkle-cream-50g.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-sparkling-white-toothpaste-150gm.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-purifying-neem-face-wash-50ml.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-protective-sunscreen-lotion-100ml.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-anti-dandruff-shampoo-700ml.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-herbal-dental-cream-200gm.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-daily-nourish-styling-gel-normal-hold-100ml.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-anti-dandruff-shampoo-400ml.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-complete-care-herbal-toothpaste-150gm.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-gentle-exfoliating-walnut-scrub-100gm.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-clear-complexion-whitening-face-scrub-100gm.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-lip-balm-10g.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-anti-dandruff-styling-gel-strong-hold-for-men-100ml.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-purifying-neem-scrub-100gm.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-oil-free-radiance-gel-cream-50gm.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-kajal-eye-definer-27gm.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-nourishing-skin-cream-200ml.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-winter-defense-moisturizing-cream-100ml.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-oil-clear-lemon-face-wash-150ml.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-fresh-start-oil-clear-face-wash-blueberry-50ml.jpg; https://www.okdam.com/public/images/upload/product/extraimages/himalaya-fresh-start-oil-clear-face-wash-blueberry-100ml.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-fresh-start-oil-clear-face-wash-lemon-50ml.jpg</t>
-  </si>
-  <si>
-    <t>https://www.okdam.com/public/images/upload/product/himalaya-fresh-start-oil-clear-face-wash-strawberry-50ml.jpg</t>
-  </si>
-  <si>
-    <t>https://murarkey.com/wp-content/uploads/2020/04/Rim3-b.jpg</t>
   </si>
 </sst>
 </file>
@@ -877,17 +883,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="13.140625" style="1"/>
-    <col min="12" max="12" width="42" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="1"/>
-    <col min="14" max="14" width="26.7109375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="13.140625" style="1"/>
+    <col min="1" max="1" width="58.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="232" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="13.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -931,7 +948,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
@@ -957,7 +974,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
@@ -969,7 +986,7 @@
         <v>46</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="M2" s="1">
         <v>30693</v>
@@ -978,7 +995,7 @@
         <v>10</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1001,7 +1018,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
@@ -1013,7 +1030,7 @@
         <v>200</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M3" s="1">
         <v>30694</v>
@@ -1022,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1045,7 +1062,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
@@ -1057,7 +1074,7 @@
         <v>145</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="M4" s="1">
         <v>30695</v>
@@ -1066,7 +1083,7 @@
         <v>10</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1089,7 +1106,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>16</v>
@@ -1101,7 +1118,7 @@
         <v>205</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="M5" s="1">
         <v>30696</v>
@@ -1110,7 +1127,7 @@
         <v>10</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1133,7 +1150,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
@@ -1145,7 +1162,7 @@
         <v>130</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M6" s="1">
         <v>30697</v>
@@ -1154,7 +1171,7 @@
         <v>10</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1177,7 +1194,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>16</v>
@@ -1189,7 +1206,7 @@
         <v>85</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="M7" s="1">
         <v>30698</v>
@@ -1198,7 +1215,7 @@
         <v>10</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1221,7 +1238,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>16</v>
@@ -1233,7 +1250,7 @@
         <v>45</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M8" s="1">
         <v>30699</v>
@@ -1242,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1265,7 +1282,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
@@ -1277,7 +1294,7 @@
         <v>375</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="M9" s="1">
         <v>30700</v>
@@ -1286,7 +1303,7 @@
         <v>10</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1309,7 +1326,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>16</v>
@@ -1321,7 +1338,7 @@
         <v>365</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="M10" s="1">
         <v>30701</v>
@@ -1330,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1353,7 +1370,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
@@ -1365,7 +1382,7 @@
         <v>375</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M11" s="1">
         <v>30702</v>
@@ -1374,7 +1391,7 @@
         <v>10</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1397,7 +1414,7 @@
         <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>16</v>
@@ -1409,7 +1426,7 @@
         <v>205</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="M12" s="1">
         <v>30703</v>
@@ -1418,7 +1435,7 @@
         <v>10</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1441,7 +1458,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>16</v>
@@ -1453,7 +1470,7 @@
         <v>415</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M13" s="1">
         <v>30704</v>
@@ -1462,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1485,7 +1502,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>16</v>
@@ -1497,7 +1514,7 @@
         <v>135</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="M14" s="1">
         <v>30705</v>
@@ -1506,7 +1523,7 @@
         <v>10</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1529,7 +1546,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>16</v>
@@ -1541,7 +1558,7 @@
         <v>100</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="M15" s="1">
         <v>30706</v>
@@ -1550,7 +1567,7 @@
         <v>10</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1573,7 +1590,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>16</v>
@@ -1585,7 +1602,7 @@
         <v>300</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M16" s="1">
         <v>30707</v>
@@ -1594,7 +1611,7 @@
         <v>10</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1617,7 +1634,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>16</v>
@@ -1629,7 +1646,7 @@
         <v>575</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M17" s="1">
         <v>30708</v>
@@ -1638,7 +1655,7 @@
         <v>10</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1661,7 +1678,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>16</v>
@@ -1673,7 +1690,7 @@
         <v>130</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M18" s="1">
         <v>30709</v>
@@ -1682,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1705,7 +1722,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>16</v>
@@ -1717,7 +1734,7 @@
         <v>145</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="M19" s="1">
         <v>30710</v>
@@ -1726,7 +1743,7 @@
         <v>10</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1749,7 +1766,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>16</v>
@@ -1761,7 +1778,7 @@
         <v>350</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M20" s="1">
         <v>30711</v>
@@ -1770,7 +1787,7 @@
         <v>10</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1793,7 +1810,7 @@
         <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>16</v>
@@ -1805,7 +1822,7 @@
         <v>120</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="M21" s="1">
         <v>30712</v>
@@ -1814,7 +1831,7 @@
         <v>10</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1837,7 +1854,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>16</v>
@@ -1849,7 +1866,7 @@
         <v>210</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M22" s="1">
         <v>30713</v>
@@ -1858,7 +1875,7 @@
         <v>10</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1881,7 +1898,7 @@
         <v>15</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>16</v>
@@ -1893,7 +1910,7 @@
         <v>210</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M23" s="1">
         <v>30714</v>
@@ -1902,7 +1919,7 @@
         <v>10</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1925,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>16</v>
@@ -1937,7 +1954,7 @@
         <v>50</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="M24" s="1">
         <v>30715</v>
@@ -1946,7 +1963,7 @@
         <v>10</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1969,7 +1986,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>16</v>
@@ -1981,7 +1998,7 @@
         <v>150</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M25" s="1">
         <v>30716</v>
@@ -1990,7 +2007,7 @@
         <v>10</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2013,7 +2030,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>16</v>
@@ -2025,7 +2042,7 @@
         <v>210</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="M26" s="1">
         <v>30717</v>
@@ -2034,7 +2051,7 @@
         <v>10</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2057,7 +2074,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>16</v>
@@ -2069,7 +2086,7 @@
         <v>375</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="M27" s="1">
         <v>30718</v>
@@ -2078,7 +2095,7 @@
         <v>10</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2101,7 +2118,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>16</v>
@@ -2113,7 +2130,7 @@
         <v>215</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="M28" s="1">
         <v>30719</v>
@@ -2122,7 +2139,7 @@
         <v>10</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2145,7 +2162,7 @@
         <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>16</v>
@@ -2157,7 +2174,7 @@
         <v>350</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="M29" s="1">
         <v>30720</v>
@@ -2166,7 +2183,7 @@
         <v>10</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2189,7 +2206,7 @@
         <v>15</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>16</v>
@@ -2201,7 +2218,7 @@
         <v>200</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="M30" s="1">
         <v>30721</v>
@@ -2210,7 +2227,7 @@
         <v>10</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2233,7 +2250,7 @@
         <v>15</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>16</v>
@@ -2245,7 +2262,7 @@
         <v>240</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M31" s="1">
         <v>30722</v>
@@ -2254,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2277,7 +2294,7 @@
         <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>16</v>
@@ -2289,7 +2306,7 @@
         <v>205</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="M32" s="1">
         <v>30723</v>
@@ -2298,7 +2315,7 @@
         <v>10</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2321,7 +2338,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>16</v>
@@ -2333,7 +2350,7 @@
         <v>268</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M33" s="1">
         <v>30724</v>
@@ -2342,7 +2359,7 @@
         <v>10</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2365,7 +2382,7 @@
         <v>15</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>16</v>
@@ -2377,7 +2394,7 @@
         <v>268</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M34" s="1">
         <v>30725</v>
@@ -2386,7 +2403,7 @@
         <v>10</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2409,7 +2426,7 @@
         <v>15</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>16</v>
@@ -2421,7 +2438,7 @@
         <v>268</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="M35" s="1">
         <v>30726</v>
@@ -2430,7 +2447,7 @@
         <v>10</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2453,7 +2470,7 @@
         <v>15</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>16</v>
@@ -2465,7 +2482,7 @@
         <v>268</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M36" s="1">
         <v>30727</v>
@@ -2474,7 +2491,7 @@
         <v>10</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
